--- a/Table3_IronSndSpd.xlsx
+++ b/Table3_IronSndSpd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margarethuff/Documents/GitHub/Public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB5A0D6-C880-2C4E-983B-35A4DA20A11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA8346B-861E-C145-BCE0-602A6FE3A05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="920" windowWidth="14900" windowHeight="17080" xr2:uid="{FD870DD9-FC75-C54D-97E8-F013DF1668F5}"/>
+    <workbookView xWindow="5560" yWindow="6740" windowWidth="27240" windowHeight="16380" xr2:uid="{FD870DD9-FC75-C54D-97E8-F013DF1668F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
